--- a/data/hotels_by_city/Dallas/Dallas_shard_122.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_122.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="761">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Anna V</t>
+  </si>
+  <si>
     <t>06/07/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>I was here for a regional all-emplpyee conference.  Front desk people were nice although check-in was a little slow.  Beautiful rooms, but housekeeping wasn't quite up to par.  A table tucked under the desk had straw wrappers and salt packets from a nearby fast food place sitting on top of it, and when I spilled some popcorn crumbs they were still there the next evening, up against the nightstand.  As for the convention area, the restrooms were as far from our meeting room as possible.  I saw a man cleaning the men's restroom the first day, but the women's was filthy and there was an overpowering smell of used feminine hygiene products - one of the containers for such things was spilling over, and so was the trash can by the sink.  This was not cleaned at all either day.  And the free breakfast that was part of our deal was a joke.  They ran out of plates the first day, and were quite begrudging about replacing them.  It was announced in our meeting that some of our attendees who were staying at the Residence Inn were sneaking over and eating our breakfast, but others who stsyed at the R.I. saif their breakfast was better than ours.  The next day thry ran out of plates again,  and when some members of our group asked for more plates thry were told,  "there are 30 people in your group so you got...I was here for a regional all-emplpyee conference.  Front desk people were nice although check-in was a little slow.  Beautiful rooms, but housekeeping wasn't quite up to par.  A table tucked under the desk had straw wrappers and salt packets from a nearby fast food place sitting on top of it, and when I spilled some popcorn crumbs they were still there the next evening, up against the nightstand.  As for the convention area, the restrooms were as far from our meeting room as possible.  I saw a man cleaning the men's restroom the first day, but the women's was filthy and there was an overpowering smell of used feminine hygiene products - one of the containers for such things was spilling over, and so was the trash can by the sink.  This was not cleaned at all either day.  And the free breakfast that was part of our deal was a joke.  They ran out of plates the first day, and were quite begrudging about replacing them.  It was announced in our meeting that some of our attendees who were staying at the Residence Inn were sneaking over and eating our breakfast, but others who stsyed at the R.I. saif their breakfast was better than ours.  The next day thry ran out of plates again,  and when some members of our group asked for more plates thry were told,  "there are 30 people in your group so you got 30 plates, that's enough!"  Some of the attendees had gone back for seconds before others were there, and no one was monitoring who came and went. If people outside the hotel are sneaking in to eat their breakfast,  perhaps,the hotel should require a room key to be shown before allowing anyone to eat.  And how much extra does it cost the hotel to put out a better supply of plates???More</t>
   </si>
   <si>
+    <t>Andy G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r538354962-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>Awesome place. Top notch. Plenty of parking, not far from freeway. Room was amazing. Bed super comfortable. Staff was nice. No free breakfast. Starbucks in lobby. Coffee maker in room. Workout room with cardio and a dumbbell rack. Outdoor patio with pool and fire pit. More</t>
   </si>
   <si>
+    <t>bowler6140</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r536274121-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -238,6 +247,9 @@
   </si>
   <si>
     <t>A nice place to stay.  The rooms are well done, though our room did not have a microwave in it.  The area has a lot of places to choose from to eat, and it is central for trips to Forth Worth or Dallas. Travel from there to DFW can be trying due to traffic if you are going during rush hour.  The pool is not inside and did not seem to be heated so it was cool in October.More</t>
+  </si>
+  <si>
+    <t>James T</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r529096243-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
@@ -267,6 +279,9 @@
   <si>
     <t>My wife and I stayed here for a shopping trip and brief visit to Six Flags.  The property is located just off of I-20 on Highlander.  We booked the property as a "Express Deal" on our favorite booking website, so we were happy with the price paid for the quality of the property.
 Check-in was easy, though we were initially given an "accessible" room to which the door keys did not function.  The desk clerk was kind enough to upgrade us to a suite (not sure what the first room looked liked - may have been the same, but we felt good about it).  The room was a first floor room away from I-20, and we never heard anything from outside or the nearby highway.  The room had an in-room coffee maker and a small refrigerator.  The person tending the bar / food area in the lobby was kind to open our bottle of wine for us.  The room was very clean with a very fresh look to the décor, and the manner in which it was laid out gave a spacious feel to the place.  The tub had a bench area toward the back of the tub that was a nice touch.  The bath amenities were OK.  The bed was firm, but very comfortable, and the A/C did a fine job of keeping the room cool. We arrived late and departed early, so we did not have a chance...My wife and I stayed here for a shopping trip and brief visit to Six Flags.  The property is located just off of I-20 on Highlander.  We booked the property as a "Express Deal" on our favorite booking website, so we were happy with the price paid for the quality of the property.Check-in was easy, though we were initially given an "accessible" room to which the door keys did not function.  The desk clerk was kind enough to upgrade us to a suite (not sure what the first room looked liked - may have been the same, but we felt good about it).  The room was a first floor room away from I-20, and we never heard anything from outside or the nearby highway.  The room had an in-room coffee maker and a small refrigerator.  The person tending the bar / food area in the lobby was kind to open our bottle of wine for us.  The room was very clean with a very fresh look to the décor, and the manner in which it was laid out gave a spacious feel to the place.  The tub had a bench area toward the back of the tub that was a nice touch.  The bath amenities were OK.  The bed was firm, but very comfortable, and the A/C did a fine job of keeping the room cool. We arrived late and departed early, so we did not have a chance to try the pool area, though it seemed to be designed in a courtyard set-up that was very nice.We wish they had a furnished breakfast.  They did have breakfast available, but we decided to eat an early lunch in one of our favorite local chain eateries instead.  The lobby did have a lot of people in the breakfast area, and they seemed to be enjoying the experience.   Check out was quick and easy.  Unlike some of the other reviewers, we found the staff to be quick, efficient and accommodating.  We would stay here again.  We did not ask for a lot, so we were pretty easy to please (this time).More</t>
+  </si>
+  <si>
+    <t>BBGCR</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r528519833-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
@@ -295,6 +310,9 @@
 You'll have to pay $20+ for a...I requested a quiet room when I made my reservation, and reiterated that with the front desk when I checked in. They put me close to one end up on the 4th (top) floor. Instead of trying to accommodate my request, they continually kept packing people in all around me instead of trying to space people out a little bit. The parking lot is rarely even half full and they have 4 floors full of rooms. I’ve been here over a week now.One night there was a large group of unsupervised high school kids making a lot of noise and going from room to room slamming doors until almost midnight. I called the front desk twice after 11:00 PM. The 4th floor is supposed to be the quiet floor - and they pack in a bunch of high school kids?The same thing started back up again around 8:00 AM the next morning, and then their own maid staff stands right outside my door having a loud BS session and proceed to clean the rooms on both sides of me. Do Not Disturb door hanger is on my door all the time. No chance of sleeping in a little bit on a Saturday around here.Last night there are kids hanging out on the hallway and playing soccer on my end of the hotel. There are no quiet rooms at this hotel.You'll have to pay $20+ for a mediocre breakfast (per person) that would cost less than $10 anywhere else. On two occasions, I ordered a muffin and coffee. One guy goes in the back and brings out a muffin bare handed. The second time, a different guy was closing out the register (early) counting out wads of cash and uses a thin little piece of tissue paper to pick up my muffin with his bare hands. I said something to him and then he puts on a glove. I told the manager they should do a little training for food handling - or at least use tongs. So, after complaining about the noise and the food handling, they give me a few vouchers for free food at the same cafe that wasn't handling food properly. I already decided I wasn’t going to eat there any longer, so how is that supposed to help?I practice conservation efforts and waited about 4 days to have my room cleaned so I could get fresh sheets and towels. They didn’t even change the sheets – they just made the bed. Hotel policy is sheet changes every two days.I was trying to get ready one morning and the water shut off completely – no warning, no nothing. After the water came back on and I ran all the nasty gray water through, I didn’t have any hot water pressure in the shower. Thankfully I wasn’t already in the shower to get sprayed...More</t>
   </si>
   <si>
+    <t>ljwilliams4987</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r526495465-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -322,6 +340,9 @@
     <t>My husband and I along with my brother in law came to check into the hotel for a weekend family event.  We were staying on friends and family disc. Upon arrival we were asked for the form.  I immediately called to family member (who was also due to arrive) and was told she was delayed.  The front desk agent said as long as she faxed the form in that same day all would be fine.  My family member assure him it would be done. The form was faxed in same night and she arrived at the hotel the next morning after being delayed.  After our family event she stopped by the front desk to make sure the form was in fact received and both rooms were credited for friends and family rate.  The customer service agent, Benny told her all was received and discount applied.  The following morning when we checked out we were charged reg. full price for the first night and friends and family rate for the second night.  My brother in law's bill however reflected full price for BOTH nights stay.  I immediately went to the front desk (knowing it was a mistake) and spoke with Mariah who had an extremely bad sassy attitude and argued with me.  I was shocked!  Mariah said if the form was NOT presented at checkout they did NOT have to honor the rate and my family member should have known that....My husband and I along with my brother in law came to check into the hotel for a weekend family event.  We were staying on friends and family disc. Upon arrival we were asked for the form.  I immediately called to family member (who was also due to arrive) and was told she was delayed.  The front desk agent said as long as she faxed the form in that same day all would be fine.  My family member assure him it would be done. The form was faxed in same night and she arrived at the hotel the next morning after being delayed.  After our family event she stopped by the front desk to make sure the form was in fact received and both rooms were credited for friends and family rate.  The customer service agent, Benny told her all was received and discount applied.  The following morning when we checked out we were charged reg. full price for the first night and friends and family rate for the second night.  My brother in law's bill however reflected full price for BOTH nights stay.  I immediately went to the front desk (knowing it was a mistake) and spoke with Mariah who had an extremely bad sassy attitude and argued with me.  I was shocked!  Mariah said if the form was NOT presented at checkout they did NOT have to honor the rate and my family member should have known that.  In all my years of traveling I have never witnessed such horrible customer service in all my life! I asked well at least if she would not accept the friends and family rate could we present our AARP card or AAA? I was told NO, they would not make changes to the bill on any accord.  What I see is what it will be. I told her arguing with the customer was NOT acceptable and she should be ashamed.  I asked for a call from the manager Bobby Gonzalez and now 5 days later I am still waiting.  The story gets better!  After careful review of my brother in law bill AFTER we arrived home he was charged full price for not only two days but three.  We only stayed two. I spoke to a girl named Gracie who kept sighing on the phone as though I was bothering her by asking questions about my bill.  Talking to her was alarming since she asked me to repeat everything twice as though she wasn't interested in paying attention to me in the first place. I called back to the property and received Mariah again who was NOT cooperative but said she would have a manager look at it.  Again, I asked for a call from management and NEVER received it.  It seems that the customer service reps. are making up the rules as they go...More</t>
   </si>
   <si>
+    <t>slaterster03</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r524912372-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -349,6 +370,9 @@
     <t>Nice clean hotel. Very large rooms. Everything was really nice. We would stay hear again. Lobby is spacious and relaxing with places to hang out and relax. Love that the room has a sitting area. Refrigerator is tiny. Overall e really liked it and would recommend it to all. More</t>
   </si>
   <si>
+    <t>KMartSA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r522110654-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -373,6 +397,9 @@
     <t>4 King Room Suites rooms reserved by a Marriott Rewards member 60 days in advance.  When we arrived, we were told only 1 room was available, because existing guests had extended their stay.  We were offered other rooms, that were smaller and lower amenities.They should not let guests extend IF they have confirmations with new arrivals.  I have NEVER had this kind of bad service and decision making from Any Marriott property around the world.The whole property is a little sketchy and the desk staff would not charge some guests for water from the Marketplace and would charge others, based on the color of their skin.Sad little property in a bad location.More</t>
   </si>
   <si>
+    <t>motherof3OK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r515337514-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -391,6 +418,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>tylerjennifer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r507580158-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -409,6 +439,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>Chris R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r501454903-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -424,6 +457,9 @@
     <t>The front desk staff including Benny, Neven and Brandon are top notch! I've stayed here at least 100 nights the past 1.5 years. TiffAny at the bistro is like family staying here so long. Always accommodating!Always enjoy my stay and the upgrades being platinum member.Stay here and get to know the great staff here.</t>
   </si>
   <si>
+    <t>Joe S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r501453638-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -436,6 +472,9 @@
     <t xml:space="preserve">I'm in Arlington at least once per month on business and this is my go to lodging. Always know what to expect and it's always good. Clean rooms, friendly staff and Tiffany in the Bistro knows my name, what I like and keeps the laughter coming. All my colleagues feel the same. It's like a home away from home. Thank you. </t>
   </si>
   <si>
+    <t>enur1979</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r500055225-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -454,6 +493,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>Chuck O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r495093498-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -472,6 +514,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>VinayKPillai</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r492561993-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -496,6 +541,9 @@
     <t>I think I have spent more than 40 nights in this hotel in last 2 years for my business trip. There are so many choice around but this is very nice hotel to stay, nice rooms, a very helpful staff, &amp; great location to stay.In case of issues (issues happens, even in best hotels), but the staff will jump in to take care of it.More</t>
   </si>
   <si>
+    <t>EC W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r485494657-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -520,6 +568,9 @@
     <t>I come to this location on a regular basis from Houston.  The biggest thing I love...  Consistency.  The rooms are always clean, and most importantly the Customer Service is amazing.  If you get a chance to visit, speak with Benny at the front desk.  He has an awesome attitude and is willing to do whatever you need to make your stay pleasant.  Kudo's to all the staff at this location!!!To top everything else off the location is perfect.  Shopping and LOTS of restaurants near by!More</t>
   </si>
   <si>
+    <t>Drile1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r459431840-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -547,6 +598,9 @@
     <t>Courtyard Marriott faces the parking lot to USMD Hospital in Arlington, TX. The hospital is in the strip of stores and restaurants and The Parks Mall. The room was big and the bed comfortable for people with a bad back. They provide an iron and ironing board, a hair dryer, refrigerator and a coffee maker (not a Keurig). We will stay here again. Very convenient when seeing my doctor and medical procedures at the hospital. More</t>
   </si>
   <si>
+    <t>Judith R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r455042551-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -568,6 +622,9 @@
     <t>Customer service representative, Mallory, really went the extra mile to help me.My husband is scheduled for surgery at the nearby Orthopedic Hospital and Mallory was quite helpful in securing our reservations.More</t>
   </si>
   <si>
+    <t>Steve D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r452831064-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -592,6 +649,9 @@
     <t>This was my first stay at this hotel but not the last. The check-in was a bit rough, but after that everything else was great. My room was spacious, clean, well laid out, and well furnished. There was noise from the hallway that came around the door, but otherwise it was quiet and peaceful. The staff was very friendly and helpful. The price was reasonable. The location was awesome! The breakfast was delicious. My receipt was correct the first time. Overall, a most excellent stay. Will definitely stay here again the next time I'm in the area.More</t>
   </si>
   <si>
+    <t>Monroe M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r448994324-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -619,6 +679,9 @@
     <t>We stayed at this hotel for a Monday Night Football game at the AT&amp;T Stadium.  We left for the game approximately two hours before game time and arrived at the stadium in about 15-20 minutes.  The rooms where large and clean and the hotel seemed to have been recently updated.  The front desk staff was friendly and knowledgeable about the area.  Good location for a Dallas Cowboy's game or Texas Rangers.More</t>
   </si>
   <si>
+    <t>NKrumah L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r440711031-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -646,6 +709,9 @@
     <t>First and foremost, I will offer that I am a Marriott Rewards member and Marriott credit card holder, and this particular hotel left a lot to be desired.  We arrived for the Thanksgiving game, and the lobby was clean and modern.  The staff seemed a bit aloof to the extent that they were not really certain of local establishments for the things we asked about nearby.  Needless to say, we made it to our room, only to be greeted with a dulled stench that I had presupposed was simply from the air not having been operated.  Much to our chagrin, we ran out to get Lysol and left the air running only to find that the smell had become a mold type smell that had overtaken the room.  The next issue was when my fiancee turned back the covers to take a quick nap.  The sheets and comforter were stained and dirty.  We asked that they be changed, and given both issues, we just decided to ask to be switched to another room.  We entered that room and the accommodations were not the same, but at this point we were just fatigued.  The aroma from the mold smell was present but not as strong.  The counter staff attempted to get us to get on a "contracted shuttle" service early on the day of the game citing there wouldn't be another later, and tried to dissuade us from driving.  We decided...First and foremost, I will offer that I am a Marriott Rewards member and Marriott credit card holder, and this particular hotel left a lot to be desired.  We arrived for the Thanksgiving game, and the lobby was clean and modern.  The staff seemed a bit aloof to the extent that they were not really certain of local establishments for the things we asked about nearby.  Needless to say, we made it to our room, only to be greeted with a dulled stench that I had presupposed was simply from the air not having been operated.  Much to our chagrin, we ran out to get Lysol and left the air running only to find that the smell had become a mold type smell that had overtaken the room.  The next issue was when my fiancee turned back the covers to take a quick nap.  The sheets and comforter were stained and dirty.  We asked that they be changed, and given both issues, we just decided to ask to be switched to another room.  We entered that room and the accommodations were not the same, but at this point we were just fatigued.  The aroma from the mold smell was present but not as strong.  The counter staff attempted to get us to get on a "contracted shuttle" service early on the day of the game citing there wouldn't be another later, and tried to dissuade us from driving.  We decided to go for it and drove to the stadium.  We were told by the desk clerk that we wouldn't be able to find parking within a mile of the stadium and would be in traffic forever.  The reality was that we drove to the stadium in about fifteen minutes and parked right across from it for half of what she told us.  All in all, enjoyed the game, and was gravely disappointed in this hotel.  We'll obviously be somewhere else next Thanksgiving.I forgot to mention the drunken hotel guests banging on doors down the hall in the dead of night, and the children running up and down the hallways and operating the elevator. Not the hotels fault I guess, but part of our experience nonetheless.More</t>
   </si>
   <si>
+    <t>Don J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r436255303-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -670,6 +736,9 @@
     <t>Very courteous staff. They have a shuttle that can take you to several nearby restaurants and shops. The breakfast is no longer free, so be prepared for that. They do have a full bar in the evening which was very accommodating to our business group.More</t>
   </si>
   <si>
+    <t>Andre G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r432536089-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -697,6 +766,9 @@
     <t>I'm sure Courtyards offered more a few years back but they seem to have been dumbed down to fit a tight cost base. The hotel room is clean, the reception staff are fine...breakfast on the other hand is incredibly poor. Where once a buffet existed, now it's a menu approach with nothing included. Customer service also seems to have been lost somewhere too.There are luckily many eating choices within a mile of the hotel at the Highlands retail area.More</t>
   </si>
   <si>
+    <t>NanSnz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r427049231-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -721,6 +793,9 @@
     <t>Staff was nice. Rooms were clean and spacious. We didn't have any problem finding parking space. Lobby area was clean. There was only 1 person at front desk would have been better if there were 2 or so. Would have made check in process a lot faster. Other than that everything was excellent. Would definitely stay here again. More</t>
   </si>
   <si>
+    <t>selvat10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r418644268-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -748,6 +823,9 @@
     <t>Nice hotel, clean. Front desk staff friendly with speedy check-in process. Front desk had great information about places to eat and things to do in Arlington. Hotel is nearby everything. Will come back again!More</t>
   </si>
   <si>
+    <t>CinnamonE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r413311432-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -769,6 +847,9 @@
     <t>Clean and spacious rooms. We were one of those "needy" groups and all of the staff were very attentive and accommodating - Even after the 5th time asking them yet again for something else we hadn't thought to bring with us. Rates were reasonable and I would recommend this property for sure.More</t>
   </si>
   <si>
+    <t>Kristie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r402226122-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -787,6 +868,9 @@
     <t>Clean and beautiful room. Ultra quite surroundings. I felt safe with my children running around the hotel for our conference.  Your staff did all they could to make our group comfortable.  We had a lovely stay. Seemed a bit short staffed in the evening with a such a large group in the hotel but they worked their tails off. More</t>
   </si>
   <si>
+    <t>Raymond B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r396657706-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -814,6 +898,9 @@
     <t>Needed a room for 3 adults pretty bad and the Courtyard was close to the area we needed. They were short on rooms so the desk clerk at the time had a suite that was$139 plus tax($159). Don't get me wrong the staff was excellent and the room was nice. However this IS a Marriott hotel and the furniture was so uncomfortable that was hard to sit in to watch Tv. Also and most important was that every hotel I have stayed at in this price bracket had a breakfast. Not this place. They had what they called a bistro that had a few high dollar items for breakfast. I'm just saying that the Marriott could be a little more customer friendly as far as their amenities. May I repeat that the staff was excellent.More</t>
   </si>
   <si>
+    <t>KenBerry1960</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r393363393-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -838,6 +925,9 @@
     <t>Where do I start??? Maybe being charged 500 dollars too much would be a good start, followed by no one at the front desk. Asked for 2 nights for an extra comforter, had to call the corporate office for extra towels. Was charged 15 dollars for the call to the corporate office. What??? I've been on this earth 56 years and I've stayed in some 29.99 a night dumps. They have all been better than this stay. Rooms by the hour are better than this dump. Warning...........do not stay here............and that 500 dollar over charge better come back to my daughter, or her boss (and lawyer) will hook you up!!!More</t>
   </si>
   <si>
+    <t>KeithAnderson91</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r393349608-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -853,6 +943,9 @@
     <t>Very clean rooms!!! Friendly atmosphere!!Beds very comfortable!!Very easy to get to!!Awesome service from Kimi at the front desk and Tiffany Carter at the bar.  Look forward to coming back here again next year.Highly recommend anyone to choose this location when traveling through this area.   More</t>
   </si>
   <si>
+    <t>jetthrow22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r393077880-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -871,6 +964,9 @@
     <t>the facilitys were excellent and customer service was amazing. tiffany our bistro/barmaid was top notch she was knowledgeable and has perfect service skills. i highly recomend this facility to anyone. great amenities near and the staff are helpful and pleasant to visit with.More</t>
   </si>
   <si>
+    <t>lesleyfox05</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r385403286-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -892,6 +988,9 @@
     <t>The front desk staff, Kimi W, is amazing.  I wish all companies had people like her.  Her smile and help would be a great compliment to any company.  She should work for me.  The rooms are very big and spaciouse.  The bathroom is one I would love to have in my house.More</t>
   </si>
   <si>
+    <t>D F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r381739265-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -917,6 +1016,9 @@
   </si>
   <si>
     <t>This place is a very nice place to stay. The rooms have been updated and very nice. The issue I have is you pay good money but have to pay for breakfast. It's close to Stadium and Rangers and six flags. The staff was very nice. Also hard to adjust hot water in my room but would staff her again. More</t>
+  </si>
+  <si>
+    <t>Candida07</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r366825657-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
@@ -948,6 +1050,9 @@
 The young and helpful desk clerk at the Courtyard was apologetic about the situation and offered breakfast vouchers, which we used. On Sunday, I was disappointed to see that we were charged for the breakfast anyway, despite having given the clerk our vouchers and watched as she stapled them to the breakfast receipt. We were also charged for the room, which was not in line with what...We arrived on a Friday evening after being told at the sister property (Residence Inn Arlington South) that there was no room for us, even though we had a reservation. Management places its young and helpful desk clerks in this impossible situation--'oh, oops, we gave away your room...now go to our sister property next door and they will have a room for you.' What else could we do in this situation but comply since it was 10:30 PM and we were tired from traveling? We were told that it should all be OK since Courtyard would keep the same rate as the Residence Inn. However, staying at a Courtyard is really quite a bit more expensive since there is no breakfast offered and the arrangement pushed us into having to eat out for the weekend, rather than having a place in the room to keep food. I called the Marriott rewards line and was told that we would not be charged for the room, and that the situation would be resolved on Saturday.The young and helpful desk clerk at the Courtyard was apologetic about the situation and offered breakfast vouchers, which we used. On Sunday, I was disappointed to see that we were charged for the breakfast anyway, despite having given the clerk our vouchers and watched as she stapled them to the breakfast receipt. We were also charged for the room, which was not in line with what the Marriott rewards representative told me on the phone on Friday night.We were able to get the breakfast charge removed from our account, but have to wonder what constitutes a promise at this property. Clearly, having a reservation means nothing (except that we will be charged if we don't show up), a breakfast voucher is not a guarantee that the meal was complimentary, etc. The desk clerks are forced to deal with these situations that are beyond their control. The manager is the same for both properties. Business cards clearly state that the property is not operated by Marriott, but under a license agreement with Marriott (through Pillar Hotels).My experience at these properties is not what I am used to after years of staying at Marriott hotels and years as a rewards member. I definitely would not stay here again.More</t>
   </si>
   <si>
+    <t>Killara1967</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r364719994-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -972,6 +1077,9 @@
     <t>I flew from Australia with my son to attend WrestleMania32 and stayed for 3 nights at the hotel. This involved having tickets sent to the Hotel a number of weeks ahead of the event. The team were very helpful and took good care of us during our stay.Even though we had booked a room with a king bed and rollaway, they managed to find a room with two doubles. Thank you!Also, when I accidentally left my credit card in the foyer, the manager tracked me down it was found and ensured it was returned safely. Facility is what you would expect but the Manager and his team made the difference. Thank you!!More</t>
   </si>
   <si>
+    <t>katie g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r275967505-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -999,6 +1107,9 @@
     <t>Wow just wow.  Uncomfortable beds, cocktail prices like a sports venue, no coffee in the lobby but a Starbucks.  So if you don't want a 6 dollar cup you have to go make a cup in your room.  Then no complimentary breakfast which for the room rate of this hotel it is typical to provide.  So for two or made sandwiches, yes just like from 7-11 warmed up in a microwave you will pay 21.00.  This experience has been eye opening and uncomfortable.  Don't do it. More</t>
   </si>
   <si>
+    <t>John M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r270998794-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1026,6 +1137,9 @@
     <t>I stayed here for one night on a short business trip to the Dallas area. I picked this because it was close to the company location I had to visit, and the price was right. I found the staff to be friendly, and they even suggested some of their favorite barbeque restaurants nearby. There is a small restaurant and bar, but the prices were higher than you could find nearby. The room was comfortable, and the wifi was reasonably fast. Our rate included breakfast at the small restaurant, which was cooked to order and tasty. I would go elsewhere if I was buying the food at the prices on the menu. It's close to a shopping area with a lot of reasonable restaurants.Of course, it's hard to say from staying somewhere for one night, but I thought it was a fine choice if you weren't looking for a full-service hotel.More</t>
   </si>
   <si>
+    <t>F35Tom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r252899950-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1053,6 +1167,9 @@
     <t>We stayed for a one night get-away. Friendly people at front desk with nice surroundings. The one place where this place missed the mark was in the room where the wallpaper was coming away from the wall at the seams.  It was not in just a few places but consistently on many of the walls in the room.  Nice touch with a seat in the shower.More</t>
   </si>
   <si>
+    <t>Mjaj2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r252087844-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1071,6 +1188,9 @@
     <t>We travel on business a lot and this hotel came recommended to us. The room was fine and the bathroom has a sitting area at the back of the tub. Makes it easy to shave your legs ladies. Several of us stayed there on business and the restaurant/bar was very accommodating. There is also an area to lounge, watch TV and a business area to print boarding passes. The main draw back is the lack of breakfast. $2.50 for yogurt is just a bit high. The room would have been more comfortable it the temperature would have remained at a constant temperature. More</t>
   </si>
   <si>
+    <t>stuart g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r250819940-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1095,6 +1215,9 @@
     <t>My wife checked in for a 3 night stayShe got into bed when noticed she was drenched in urineApparently previous guest had urinated in bed and housekeeping just put a new sheet over itThe hotels response was to move her to a new room and give her some snacks along with comping 1 of the 3 nightsMore</t>
   </si>
   <si>
+    <t>Marrerikan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r231731242-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1122,6 +1245,9 @@
     <t>In town for a game at AT&amp;T Stadium and was completely satisfied with our stay. There is a nice are in the back to relax and have a drink. I also got in a nice workout before heading to the game. Would definitely stay here again.More</t>
   </si>
   <si>
+    <t>vacationsRme58</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r229333683-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1140,6 +1266,9 @@
     <t>We stayed here overnight for a football game at the AT&amp;T stadium. The website says it is closer than it is. It was still only about 5 or 6 miles away. Comfortable bed. Rooms were a bit pricey but it was during a college football game. We would return.More</t>
   </si>
   <si>
+    <t>sjskns</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r229009387-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1164,6 +1293,9 @@
     <t>We picked this location for the UCLA-Texas football game. This Hotel is not owned by Marriott and it shows by not being up to Marriott standards. Let's start with the check-in.  At 3:15pm, there was no one at the desk.  We waited 10 minutes and finally used the cell to call the hotel.  Eventually, an unpleasant your woman named Sarah came out, no apology just checked us in.  In contrast, Nevin, the overnight desk staff, was wonderful Saturday morning giving me directions to the nearest Starbucks.Beds are very comfortable, linens are lovely and the housekeeping staff is fine.  However, the wallpaper is peeling in room (vestibule and bathroom) coming out just to the left of the elevators on the 4th floor.More</t>
   </si>
   <si>
+    <t>Sofia R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r227088949-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1188,6 +1320,9 @@
     <t>Holy crap I am in room 321 and it is ridiculous how the floor moves in the room actually making me nauseous. Also all night and morning you will hear the ding of the elevator. Typical courtyard as far as amenities and cleanliness but avoid those rooms.  More</t>
   </si>
   <si>
+    <t>Brandyinkaty</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r224111879-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1212,6 +1347,9 @@
     <t>We had a family funeral to attend from the time we checked in the staff was very helpful. Our room was very clean. I do wish the pool had later hrs for the kids to enjoy , we got back late after the funeral service and dinner and we were only able to let the kids swim for about 45 mins before it closed at 10 pm. The house keeping was also very helpful in getting us extra towels and blankets. This hotel also is in a good location very close to the mall and places to eat. We would stay here again if we are ever in town. More</t>
   </si>
   <si>
+    <t>mcclungp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r211867193-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1239,6 +1377,9 @@
     <t>After a multitude of visits with a large customer, the Courtyard is consistently great with the outdoor firepit and great "visiting" lobby.   The management is super, even when needing to move our party into the lounge area -- done with superb grace.   I have always loved the way the rooms are placed, with Beds looking out at the window -- great change up.   Only thing that could be improved is the speed of service and delivery at breakfast, which is problematic at best.More</t>
   </si>
   <si>
+    <t>Edward P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r207666075-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1266,6 +1407,9 @@
     <t>Spent four nights here while visiting our son and daughter-in-law, who live about a mile away. Great location -- less than a mile from two Interstate 20 interchanges, next door to a regional shopping mall, 15 minutes from AT&amp;T Stadium and Globe Life Park, 20 minutes to downtown Fort Worth and 30 minutes to downtown Dallas. Yet it's buffered from I-20 traffic by a larger building (a hospital with emergency room) and by a small park and single-family residential on the other side, so noise is not an issue. The usual excellent layout and cleanliness that we've come to expect from Courtyard properties. The problems with the room: One of the two queen beds had a mattress that sagged some in the middle, and one of the towel-rack bars had been cut too short, so that it fell, clanging loudly to the floor, more than once during our stay.More</t>
   </si>
   <si>
+    <t>Janet G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r205434786-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1290,6 +1434,9 @@
     <t>The Courtyard in Arlington was located off the highway on a frontage road which suited us well. There was no traffic noise and it was convenient to shopping and dining. We could walk to both and get any level of each. There was a small pool with nice furniture. It also had a fire place outside. The staff was helpful and friendly, printing off a map for a restaurant we wanted to drive to. We also got a late checkout without any trouble at all.  The room was large and very clean.  There were a couple of places where the wall paper was not adhering to the wall all the way, but it looked recently replaced. The bathroom was large and had a full length mirror. The tub was large and had a seat at one end. We stayed on the 4th floor (top) so we could not hear any noise of people walking above. We have always found that to be a good policy no matter where we go. Breakfast is available, but not free. It is ala carte. So we did not opt to do that. We enjoyed visiting our son and staying at the Courtyard.More</t>
   </si>
   <si>
+    <t>Sandy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r201661380-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1317,6 +1464,9 @@
     <t>The hotel was very clean, nice room.  Room was very quiet and well appointed.  Internet service was complimentary.   Aveda products in the bathroom was a bonus!  Employees at the front desk were very cordial and helpful.  Great stay!More</t>
   </si>
   <si>
+    <t>Ammar M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r200025643-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1344,6 +1494,9 @@
     <t>I stayed at this hotel in March for 16 days. It was a comfortable stay with nothing to complain about.We had no breakfast as we prepared our own in the room with the microwave available and the coffee maker.There are a couple of things I would mention; one is that the flooring is thin and made of wood and does squeak. You can hear the people walking about in the room above us, but for 16 days we could take it for a few minutes a day and that was not a real problem, I am not sure about times other than March which is a low season in Arlington! The other thing is that the water pressure in the shower could be a just a little more, though it was good enough. BUT, these two minor complaints did not affect my stay and i really had a comfortable stay.All in all, an excellent place to stay, excellent location and a polite and helpful front desk staff.More</t>
   </si>
   <si>
+    <t>Rebecca H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r199543957-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1368,6 +1521,9 @@
     <t>I used Marriott because I had a gift card.  It was a one night stay.  The desk clerk blew me off when I couldn't get my laptop on the wifi.  The bathroom stopper didn't work - wouldn't stay open for showering.  The towel rack kept falling apart.  The coffee maker didn't work - pour a whole carafe of water in and only got 1 cup brewed coffee instead of 5.  There were no disposable cups to use.  Since most of this occurred the morning of my check out there was no use in doing anything except handing a list to the desk clerk when I checked out.  There was no free breakfast either.....which most everyone else does.More</t>
   </si>
   <si>
+    <t>Catherine P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r198109812-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1395,6 +1551,9 @@
     <t>We booked our hotel after staying there last November.  We were impressed then with the hotel and it's staff and they didn't let us down.  Jose, at the front desk, stopped his chores and helped us find our concert location and told us how to get right to the door.  Yeah Jose!  We are still talking about the simple map he drew(and it was right on the money!). So much for GPS and Map quest.  We'll be back....By the way, Room 307 is THE room.More</t>
   </si>
   <si>
+    <t>Firstladtoflegacy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r196739321-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1419,6 +1578,9 @@
     <t>We booked over 60 rooms nights for an event at what we were told was a discounted rate. I found out later from friends that came up that day that they got a rate $16 less than ours. That translates into almost $1000 we were overcharged. We were also told we would have access to a shuttle which was the whole reason we picked this hotel. That did not end up being the case. The front desk staff was uncooperative and unhelpful almost every time I tried to talk to them. The layout of the hotel was frustrating. There is one elevator and it is in the back corner so you feel lost in a maze walking around the place. It certainly wasn't worth what we paid for it. More</t>
   </si>
   <si>
+    <t>S E S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r194166127-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1443,6 +1605,9 @@
     <t>Hotel property is nice, clean and staff is pleasant. HOWEVER , lifetime Platnium member staying on points. Instead of room on quite side of hotel with courtyard i am overlooking a freeway for 4 days. My profile specifically requests a nice view. I do look at parking lots at home. i definetly do not want to when i travel 80 Plus nights per year. I called and asked the hotel prior to arrival for a view/quite side room.More</t>
   </si>
   <si>
+    <t>simbadusty</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r191996717-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1470,6 +1635,9 @@
     <t>Stayed here for 3 nights on a recent business trip. The rooms were wonderful, very spacious, clean and perfect for a business stay. Had a little wet bar area with fridge, large desk to work at and separate sitting area to relax or watch TV. Best of all was the bed was very comfortable, especially after a long day at work.The lobby had a sitting area with couches and a large screen TV in case you wanted to chill outside your room. Also, there was a small dining area that served breakfast, lunch and dinner in case you didn't want to go out. Check in/out was easy, front desk help very friendly and excellent value. Exactly what you look for when you're away from home.More</t>
   </si>
   <si>
+    <t>jti67</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r187251536-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1491,6 +1659,9 @@
     <t>Reception staff were very accommodating and took care of all our needs. Rooms were very clean and cleaning staff pleasant. After our other hotel had over booked. we called our travel agent Sherri Hall from Tip Guy and she helped us find this complex that was nicer. Good location between Arlington and Dallas attractions.More</t>
   </si>
   <si>
+    <t>NessiaH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r186351595-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1518,6 +1689,9 @@
     <t>One of my most accommodating hotel experiences ever!! After my busy Thanksgiving holiday and driving 7 hours with another 7 hours to go my family and I decided to stop in Arlington and stay at the Courtyard. It was 4 am and I was pleasantly welcomed and quickly got a room. I can't remember the guy's name (reception desk) but he was so professional! He offered me late check out and also told me the breakfast hours. My room was very clean and my stay was comfortable and amazing. I would stay here in a heartbeat again. Thank You Courtyard. You never let me down!!More</t>
   </si>
   <si>
+    <t>LindsayBaines</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r185636226-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1542,6 +1716,9 @@
     <t>Our group stayed here for two nights for work.  The staff is very friendly, rooms are clean and beautiful, and the price was very reasonable.  There is lots of shopping and dining in the area, which makes the stay even better!More</t>
   </si>
   <si>
+    <t>Kaye H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r183432834-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1560,6 +1737,9 @@
     <t>Planning a party from 2000 miles away is a challenge, but Courtyard made it easy for me.  (We had 6 family members with birthdays and an anniversary to celebrate while I was in town.)  Since I was the only one coming from out of town, I booked a room at the Courtyard and had the other family members meet me there for a pizza party with birthday cake, ice cream and presents.  The front desk staff was so helpful with where to set up, who to call for pizza, directing the guests and even cleanup.  This was my second time staying at this particular location and I will definitely be going back when I visit Arlington again.  This event was effortless!More</t>
   </si>
   <si>
+    <t>Gary T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r179080789-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1581,6 +1761,9 @@
     <t>This property offers the updated Courtyard brand lobby and reception area.  This design works well for business travelers but one big shortfall is the Airline check-in PC's in the lobby do not support any of the major browser options and I was unable to check in for my flight or print my boarding pass.  I did not have this problem at recent stays at Residence Inn so not sure what's up with this property and their choice of internet provider.  This is a major deterrant to my selection of Courtyard for upcoming business travel.  Other than that inconvenience, the room was very nice and as you would expect from Courtyard.  The breakfast offerings were also very goodMore</t>
   </si>
   <si>
+    <t>JebDeb A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r171968582-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1608,6 +1791,9 @@
     <t>My husband recently made a trip to Fort Worth and were going to stay at the Courtyard, but when I called and talked with desk clerk, he told me that there was a handicap room available and the rate was $119.  I told him my husband was disabled veteran and he said that the rate for the room would be much higher because their government rates ran higher.  My husband and I have been to several motels and NEVER has the rate ever been higher much less much higher.  We were tired and decided we would just go ahead and stay, but then when I asked if we could reserve the room, he said no I would have to hang up and call the reservation line.  Needless to say. we ended up going to another hotel which was the best thing that we could have done. This is why I rate this hotel one star.More</t>
   </si>
   <si>
+    <t>MATTAANN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r166439319-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1632,6 +1818,9 @@
     <t>Very nice place, very nice rooms, unfortunately no complimentary breakfast, but all in all nice hotel, surrounded by tons of shopping places including the Parks mall. The only problem it was a little hard to find but there was a nice pool outside, hot tub inside, exercise room, wifi, and another area you could sit and smoke or have an enjoying conversation.More</t>
   </si>
   <si>
+    <t>Weazy123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r163590431-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1659,6 +1848,9 @@
     <t>We had our onstar service book this hotel for us because we were looking for a jacuzzi tub in the room &amp; had no way of searching since we were on the road. Well I want you to know how well your employees spoke to our onstar rep &amp; us. She had to answer several questions twice. Once for onstar &amp; once for me &amp; never seemed annoyed to repeat herself. The room was beyond comfortable &amp; very affordable. Because of the way we were   treated we will come back to this hotel every time we are the Dallas/Ft. Worth area. The hotel was clean &amp; like I said earlier the staff went above &amp; beyond for us.More</t>
   </si>
   <si>
+    <t>Chi11ydawg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r162566916-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1686,6 +1878,9 @@
     <t>The staff, particularly Jose at the front desk, made our 4 day stay a pleasant one. The hotel features clean rooms and a great location with restaurants and shopping nearby. The hotel bistro met our needs for light breakfast, coffee and snacks. Full dining options abound within the immediate area. We found authentic Texas hospitality and courteous service to all our inquiries from check in to check out. Internet was readily availible for directions and printing boarding passes. The pool and adjacent courtyard area was kept clean and nicely landscaped. We would definately stay here again for our next family wedding or visit.More</t>
   </si>
   <si>
+    <t>CamiSantiago</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r162354298-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1710,6 +1905,9 @@
     <t>My boyfriend and I stayed here for a wedding and were very pleased with our stay! The hotel was very clean, modern and relaxing. It was located very close to a shopping area and multiple restaurants. But what made our stay truly wonderful was the genuine and friendly staff who went out of their way to get us checked-in early, help us find a good place to grab a late lunch, and provided complimentary transportation to and from the wedding. We would definitely stay here again!More</t>
   </si>
   <si>
+    <t>jimcab2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r160415350-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1728,6 +1926,9 @@
     <t>We booked three nights here to visit our grandchildren. We bought the optional breakfast which is not included with the room like most other hotels. The first morning I went down to get breakfast and they were not open when they said they would be. There is no buffet, so I placed an order when they finally opened. We were on a schedule so 20 minutes later I told the lady that I needed my order as I had to leave. Nothing happened so I went to the front desk and gave them my breakfast coupons back and told them to credit my room for what I paid for them. To their credit they gave me the money back and an additional credit beside. The rooms are very nice, just bring your own breakfast. More</t>
   </si>
   <si>
+    <t>triptravelBerkeley</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r158901572-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1749,6 +1950,9 @@
     <t>We stayed here for three nights in a king suite.  The interior of the hotel is stylish, but it caters to business people on expense accounts, not to vacationers/people visiting family, etc.  No free breakfast, overpriced and limited food in the "bistro."  We had kitchen facilities (microwave, fridge, sink) in our suite, but NO CUTLERY OR DISHES; they want you to eat their food, I guess.  From my observation, most guests are patronizing one of the many nearby chain restaurants, often bringing food back to their rooms.  We managed to get two bowls and two spoons for our breakfast cereal by going downstairs and asking for them at the bistro.  Shouldn't have to do that.I ended up wishing we'd stayed at the Residence Inn next door, although its reviews weren't very good when I made the reservation.  Overall, we found the hotel to be quiet, but not particularly welcoming.  The rooms were spacious,but  the furniture was soo stylish that it wasn't all that comfortable. The bed was good.  Nevertheless, although we have family in the area, we won't stay here again.More</t>
   </si>
   <si>
+    <t>Kristy D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r158330255-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1767,6 +1971,9 @@
     <t>This was a nice appearing hotel. The lobby and lounge were stylish and updated, as was the room. Bed was comfy. My only complaints were these....we got a standard king and there was no microwave. Breakfast was not free, and the cleaning lady came at 4pm. we had been out of the room all day and she came to clean as soon as we returned and wanted to nap. So we didn't get our room cleaned. I don't understand why all rooms cant be cleaned earlier as long as the do not disturb sign is not up. This hotel is a good 10-15 min drive from the rangers and cowboy stadiums.More</t>
   </si>
   <si>
+    <t>cocosmommy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r154402725-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1788,6 +1995,9 @@
     <t>My husband and I have now stayed here three times. The rooms and lobby are nice and the staff is great; however, some of the guests are questionable.  Perhaps the issue is their proximity to the UTA college campus. The first time we stayed was lovely. The last two visits have left much to be desired- both times we found ourselves wide awake due to parties held by our neighbors. The hotel was responsive the first time and comped our room for a night from the time our neighbors partied from 11-2. Most recently we were promised points for a 12-2:30 party where the stereo bass thumped the floor but those haven't been deposited yet. Overall this hotel is VERY nice but be prepared for the college-aged guests. Sarah at the front desk is a charm and the other team members were also great!More</t>
   </si>
   <si>
+    <t>JJOHANA5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r145992618-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1806,6 +2016,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>Catherine H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r130815494-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1827,6 +2040,9 @@
     <t>This Courtyard totaly impressed my husband and I!  When we checked in we were greeted by the excellent front desk service.  Thank you Sarah!  In fact every time we walked through the doors the staff was so friendly and willing to help with our every need.  Another staff member from Billings Montana (sorry we forgot your name) made us feel like we had known him and had been a regular guest of Courtyard for years.  Can not say enough about the staff!  We were totally amazed with the newness, cleanliness, excellent rates and the spacious queen rooms of this hotel.   We will definitely stay here again next year when we return to Arlington.More</t>
   </si>
   <si>
+    <t>captbrando</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r119634514-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1842,6 +2058,9 @@
     <t xml:space="preserve">Liked the hotel. It's one of the redesigned Courtyards and was very clean. Elevators were a bit slow which doesn't help during peak times. Also, even with my "do not disturb" hanger on the door, our door was tapped on and the cleaning staff was very noisy in cleaning nearby rooms. If you have a late night, don't count on a restful sleep-in. </t>
   </si>
   <si>
+    <t>murphy50_11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r117773142-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1869,6 +2088,9 @@
     <t>Still feels like a new hotel, the new redesign of the courtyard are just outstanding. The staff was excellent as well.More</t>
   </si>
   <si>
+    <t>KathyLMGA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r115924353-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1890,6 +2112,9 @@
     <t>This is my second stay at this Courtyard by Marriott. I had stayed last year after it first opened and enjoyed the "newness" of the decor. Well, one year later and evrything still looks brand new! Room was spacious and immaculate with plenty of storage space, closet space and hangers.. Excellent  service from front desk, Bistro and housekeeping staff. Bistro had delicious yogurt and berry parfaits for breakfast and tasty sandwiches and salads for dinner. I used the workpout room this time - new well-maintained treadmills and a thoughtful jar of single-use earphones to use to listen to the TV while walking.   There was also a handy printer by the front desk for printing out my boarding pass. I will definitely stay here again the next time I visit Arlington. I would rate this hotel at 99% perfect. I have to take off a point for no safe in the room - had to ask the front desk to secure my laptop whenever I went out.More</t>
   </si>
   <si>
+    <t>txgal7811</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r114580340-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1911,6 +2136,9 @@
     <t>My husband was in Arlington for business a few weeks. We only live a few hours away so decided to join him for a few days to check out the sights. He had a few problems with getting a rental car and asked for a shuttle, but found out that they do not provide a shuttle to Love Field,  that was a little disappointing, because he had to get a 70 dollar cab ride to the hotel. FYI they do shuttle to DFW. However he was shuttled to and from the AVO school that he was attending and the driver was very helpful in helping him locate a rental car office. Every staff member went out of their way to help when we needed something. We were also greeted with a smile every time we entered the hotel. We knew that there was not a complimentary breakfast available, we had checked out the website previously. The bistro has some very tasty breakfast and dinner selections, and we enjoyed a few cocktails as well. The outside sitting area was a very relaxing way to end the day and unwind with a drink. Last, but not least the hotel was extremely clean! The daily maid service was impeccable!  We loved it as a family and my husband had good business trip as well. FYI it does seem to be more of a business traveler's hotel, which is nice though, it is quiet....My husband was in Arlington for business a few weeks. We only live a few hours away so decided to join him for a few days to check out the sights. He had a few problems with getting a rental car and asked for a shuttle, but found out that they do not provide a shuttle to Love Field,  that was a little disappointing, because he had to get a 70 dollar cab ride to the hotel. FYI they do shuttle to DFW. However he was shuttled to and from the AVO school that he was attending and the driver was very helpful in helping him locate a rental car office. Every staff member went out of their way to help when we needed something. We were also greeted with a smile every time we entered the hotel. We knew that there was not a complimentary breakfast available, we had checked out the website previously. The bistro has some very tasty breakfast and dinner selections, and we enjoyed a few cocktails as well. The outside sitting area was a very relaxing way to end the day and unwind with a drink. Last, but not least the hotel was extremely clean! The daily maid service was impeccable!  We loved it as a family and my husband had good business trip as well. FYI it does seem to be more of a business traveler's hotel, which is nice though, it is quiet. A teenage lacrosse group came and took over the hotel for a day, but other than that it was  nice and peaceful. Thank you all at the Courtyard Marriot!  Oh and I forgot to mention the wonderful light blocking curtains. They kept the room cool in the hot Dallas weather, kept the kids from waking up at 6 am on a weekend. This hotel is also very close to many good restaurants and the Parks Mall. I would recommend BJ's grill. -countless  menu items! Yummy!More</t>
   </si>
   <si>
+    <t>MelindaLongoria</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r112670657-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1930,6 +2158,9 @@
   </si>
   <si>
     <t>I can only hope that we get to stay at this hotel again next time we're in Arlington. We booked our original hotel through priceline. After finding that our original hotel was booked, priceline booked us at the Couryard Marriott. We were happy because it was way nicer than the original hotel we won. The hotel is decorated with such eye candy. The staff were excellent, professional, and cordial. They offered us two keys to our room. We found the room to be large and comfortable decorated with warm orange and red tones. The drapes close shut and are thick enough to black out the room for a deeper sleep. My husband was appreciative of the free internet so we could navigate our trip on google. We took our son to six flags and hurricane harbor. The staff greeted us when we returned with smiles and asked how our day went. We had a blast! The cafe downstairs offered a small menu with minimal selection and we were not tempted enough to try it, but maybe next time. The pool, hot tub, and courtyard appeared very appealing but again we were not able to experience those. We would absolutely love to stay here again. Great service!! One of the best hotels we've stayed at due to the fabulous accommodations and professional service.More</t>
+  </si>
+  <si>
+    <t>CharlieKansasCity</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r98834590-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
@@ -1955,6 +2186,9 @@
 The next morning, I called the front desk and asked if they could suggest a restaurant which has breakfast like Panera Bread Co. or Atlanta Bread Co.  He said he didn't know any, but would ask around and call me back.  He NEVER called me back.  When we got into the car and put restaurants in the Nuvi it listed both a Panera and Atlanta Bread within 10 minutes.  The pool area and patio outside are very nice.  I would suggest staying at the Residence Inn next door.  Probably wouldn't stay here again because we found...This hotel is about one year old and is decorated very nicely.  We liked the mattress, but thought the sheets smelled funny and weren't as soft and comfy as some other Marriott's.  We heard people in the hall during the night on two occasions and tried to turn the fan on the a/c, furnace on to run continually.  But it kept shutting off and wouldn't stay on to drown out the noisy in the hall.  We called to the front desk and asked about how to keep the fan on and they said you couldn't keep it on.  We asked if they had any fans we could use to help block out the hall noise and they didn't.   It was a very nice day and evening.  We wanted to sit on our large balcony, but couldn't because they don't have any furniture on them.  The next morning, I called the front desk and asked if they could suggest a restaurant which has breakfast like Panera Bread Co. or Atlanta Bread Co.  He said he didn't know any, but would ask around and call me back.  He NEVER called me back.  When we got into the car and put restaurants in the Nuvi it listed both a Panera and Atlanta Bread within 10 minutes.  The pool area and patio outside are very nice.  I would suggest staying at the Residence Inn next door.  Probably wouldn't stay here again because we found it noisy and the Residence Inn is much nice for not much more money.More</t>
   </si>
   <si>
+    <t>edjd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r87149037-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1976,6 +2210,9 @@
     <t>Last time in Dallas, stayed at the Mansion, but a far drive to Cowboys Stadium in Hwy traffic from Dallas or Ft. Worth, this time looking for something along the lines of less driving time and focused in Arlington at the Courtyard South.  The area around Hotel is great, Costco, Theatre, Bowling, restaurants and shopping all within a few seconds drive.  The Hotel is spanking brand new, the staff is extremely friendly and housekeeping is doing a great job in keeping up the place.  The rooms were CLEAN and all was in order as expected for a frequent Marriott member.  The walls  in teh rooms are adequate as I could not hear any of our 'neighbor's...couldn't hear car traffic, it was a very enjoyable and relaxing stay for us.  The Lobby area and Bistro area are clean and appear to be utilized minimal at best, but great to have options I always say.Highly recommend and would visit them in a heart beat if looking for closeness to Cowboy Stadium.More</t>
   </si>
   <si>
+    <t>sas5464</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r86092672-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1994,6 +2231,9 @@
     <t>October 2010</t>
   </si>
   <si>
+    <t>melodee99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r76698125-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2012,6 +2252,9 @@
     <t>I booked this hotel for some of my family/friends who came to town for my wedding.  Our wedding reception was also held at the hotel.  The rooms were very clean and comfortable.  All of my family and friends were extremely pleased with the accomodations.  The reception room was very nice and the hotel staff went well above what I have ever seen at any hotel in terms of making sure that all of our expectations were not only met but exceeded.  Specifically the manager Meridith and the front desk(Stephanie) were the best!  As a business owner who stays in hotels across the country, I have to say this one is one of the best!More</t>
   </si>
   <si>
+    <t>Wendy_1960</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r71301640-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2049,6 +2292,9 @@
   </si>
   <si>
     <t>April 2010</t>
+  </si>
+  <si>
+    <t>s00nerchick</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1199983-r47018401-Courtyard_Dallas_Arlington_South-Arlington_Texas.html</t>
@@ -2571,43 +2817,47 @@
       <c r="A2" t="n">
         <v>54894</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>20082</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2619,56 +2869,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>54894</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>63221</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2680,56 +2934,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>54894</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>32116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2745,56 +3003,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>54894</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>14524</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>83</v>
+      </c>
+      <c r="O5" t="s">
         <v>75</v>
-      </c>
-      <c r="J5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>79</v>
-      </c>
-      <c r="O5" t="s">
-        <v>72</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2812,47 +3074,51 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>54894</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>126642</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -2871,50 +3137,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>54894</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>126643</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2932,56 +3202,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="X7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>54894</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>85461</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2993,56 +3267,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="X8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>54894</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>126644</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3054,56 +3332,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="X9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="Y9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>54894</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>126645</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="O10" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3117,50 +3399,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>54894</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>126646</v>
+      </c>
+      <c r="C11" t="s">
+        <v>130</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="O11" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -3178,50 +3464,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>54894</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>6976</v>
+      </c>
+      <c r="C12" t="s">
+        <v>137</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3237,50 +3527,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>54894</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>298</v>
+      </c>
+      <c r="C13" t="s">
+        <v>143</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3294,50 +3588,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>54894</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>90407</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="J14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="K14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="L14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="O14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -3355,50 +3653,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>54894</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>69018</v>
+      </c>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="J15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="K15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3412,50 +3714,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>54894</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>126647</v>
+      </c>
+      <c r="C16" t="s">
+        <v>162</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="K16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -3473,56 +3779,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="X16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="Y16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>54894</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>126648</v>
+      </c>
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="J17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="K17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3540,56 +3850,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="X17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="Y17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>54894</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>126649</v>
+      </c>
+      <c r="C18" t="s">
+        <v>180</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="J18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3601,56 +3915,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="X18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="Y18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>54894</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>77273</v>
+      </c>
+      <c r="C19" t="s">
+        <v>190</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="J19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="K19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="O19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3664,56 +3982,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="X19" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="Y19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>54894</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>7885</v>
+      </c>
+      <c r="C20" t="s">
+        <v>198</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="J20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="K20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3725,56 +4047,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="X20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="Y20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>54894</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>126650</v>
+      </c>
+      <c r="C21" t="s">
+        <v>207</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="J21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="K21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="O21" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -3792,56 +4118,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="X21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="Y21" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>54894</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>126651</v>
+      </c>
+      <c r="C22" t="s">
+        <v>217</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="J22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="K22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="O22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -3859,56 +4189,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="X22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="Y22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>54894</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>20707</v>
+      </c>
+      <c r="C23" t="s">
+        <v>227</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="J23" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="K23" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="L23" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3924,56 +4258,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="X23" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="Y23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>54894</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>92159</v>
+      </c>
+      <c r="C24" t="s">
+        <v>236</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="J24" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="K24" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -3989,56 +4327,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="X24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="Y24" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>54894</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>126652</v>
+      </c>
+      <c r="C25" t="s">
+        <v>246</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="J25" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="K25" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="L25" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="O25" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4050,56 +4392,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="X25" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="Y25" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>54894</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>126653</v>
+      </c>
+      <c r="C26" t="s">
+        <v>255</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="J26" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="K26" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="L26" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="O26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -4117,56 +4463,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="X26" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="Y26" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>54894</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>126654</v>
+      </c>
+      <c r="C27" t="s">
+        <v>265</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="J27" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="K27" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="L27" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4182,56 +4532,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="X27" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="Y27" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>54894</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>51775</v>
+      </c>
+      <c r="C28" t="s">
+        <v>273</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="J28" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="K28" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="L28" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="O28" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4243,56 +4597,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="X28" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="Y28" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>54894</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>18936</v>
+      </c>
+      <c r="C29" t="s">
+        <v>280</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="J29" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="K29" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="L29" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="O29" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4304,56 +4662,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="X29" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="Y29" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>54894</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>126655</v>
+      </c>
+      <c r="C30" t="s">
+        <v>290</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="J30" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="K30" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="L30" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4365,56 +4727,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="X30" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="Y30" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>54894</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>126656</v>
+      </c>
+      <c r="C31" t="s">
+        <v>299</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="J31" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="K31" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="L31" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4426,56 +4792,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="X31" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="Y31" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>54894</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>126657</v>
+      </c>
+      <c r="C32" t="s">
+        <v>305</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="J32" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="K32" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="L32" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4493,56 +4863,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="X32" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="Y32" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>54894</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>126658</v>
+      </c>
+      <c r="C33" t="s">
+        <v>312</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="J33" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="K33" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="L33" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4558,56 +4932,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="X33" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="Y33" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>54894</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>98909</v>
+      </c>
+      <c r="C34" t="s">
+        <v>320</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="J34" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="K34" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="L34" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4619,56 +4997,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="X34" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="Y34" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>54894</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>126659</v>
+      </c>
+      <c r="C35" t="s">
+        <v>330</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="J35" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="K35" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="L35" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="O35" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
@@ -4684,56 +5066,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="X35" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="Y35" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>54894</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>126660</v>
+      </c>
+      <c r="C36" t="s">
+        <v>340</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="J36" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="K36" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="L36" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="O36" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4751,56 +5137,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="X36" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="Y36" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>54894</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>126661</v>
+      </c>
+      <c r="C37" t="s">
+        <v>349</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="J37" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="K37" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="L37" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="O37" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4812,56 +5202,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="X37" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="Y37" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>54894</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>12976</v>
+      </c>
+      <c r="C38" t="s">
+        <v>359</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="J38" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="K38" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="L38" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -4879,56 +5273,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="X38" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="Y38" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>54894</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>126662</v>
+      </c>
+      <c r="C39" t="s">
+        <v>369</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="J39" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="K39" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="L39" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="O39" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -4944,56 +5342,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="X39" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="Y39" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>54894</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>126663</v>
+      </c>
+      <c r="C40" t="s">
+        <v>379</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="J40" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="K40" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="L40" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5005,56 +5407,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="X40" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="Y40" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>54894</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>63145</v>
+      </c>
+      <c r="C41" t="s">
+        <v>386</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="J41" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="K41" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="L41" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5066,56 +5472,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="X41" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="Y41" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>54894</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>126664</v>
+      </c>
+      <c r="C42" t="s">
+        <v>395</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="J42" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="K42" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="L42" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="O42" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -5131,47 +5541,51 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="X42" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="Y42" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>54894</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>112307</v>
+      </c>
+      <c r="C43" t="s">
+        <v>405</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="J43" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="K43" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="L43" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
@@ -5198,56 +5612,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="X43" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="Y43" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>54894</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>96770</v>
+      </c>
+      <c r="C44" t="s">
+        <v>412</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="J44" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="K44" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="L44" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="O44" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5263,56 +5681,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="X44" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="Y44" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>54894</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>104279</v>
+      </c>
+      <c r="C45" t="s">
+        <v>421</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="J45" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="K45" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="L45" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5324,47 +5746,51 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
       <c r="X45" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
       <c r="Y45" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>54894</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>126665</v>
+      </c>
+      <c r="C46" t="s">
+        <v>430</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="J46" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="K46" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="L46" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
@@ -5381,56 +5807,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="X46" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="Y46" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>54894</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>126666</v>
+      </c>
+      <c r="C47" t="s">
+        <v>439</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="J47" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="K47" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="L47" t="s">
-        <v>398</v>
+        <v>444</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -5452,56 +5882,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="X47" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="Y47" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>54894</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>45449</v>
+      </c>
+      <c r="C48" t="s">
+        <v>449</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="J48" t="s">
-        <v>405</v>
+        <v>452</v>
       </c>
       <c r="K48" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
       <c r="L48" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="O48" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -5523,56 +5957,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="X48" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
       <c r="Y48" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>54894</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>16146</v>
+      </c>
+      <c r="C49" t="s">
+        <v>459</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="J49" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="K49" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="L49" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="O49" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5594,56 +6032,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="X49" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="Y49" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>54894</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>13914</v>
+      </c>
+      <c r="C50" t="s">
+        <v>468</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="J50" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="K50" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="L50" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="O50" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5665,56 +6107,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="X50" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="Y50" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>54894</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>126667</v>
+      </c>
+      <c r="C51" t="s">
+        <v>478</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="J51" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
       <c r="K51" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="L51" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>434</v>
+        <v>484</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5734,56 +6180,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
       <c r="X51" t="s">
-        <v>436</v>
+        <v>486</v>
       </c>
       <c r="Y51" t="s">
-        <v>437</v>
+        <v>487</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>54894</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>10808</v>
+      </c>
+      <c r="C52" t="s">
+        <v>488</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>438</v>
+        <v>489</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="J52" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
       <c r="K52" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="L52" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>434</v>
+        <v>484</v>
       </c>
       <c r="O52" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -5805,56 +6255,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
       <c r="X52" t="s">
-        <v>444</v>
+        <v>495</v>
       </c>
       <c r="Y52" t="s">
-        <v>445</v>
+        <v>496</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>54894</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>5327</v>
+      </c>
+      <c r="C53" t="s">
+        <v>497</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="J53" t="s">
-        <v>448</v>
+        <v>500</v>
       </c>
       <c r="K53" t="s">
-        <v>449</v>
+        <v>501</v>
       </c>
       <c r="L53" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
       <c r="O53" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5876,47 +6330,51 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
       <c r="X53" t="s">
-        <v>453</v>
+        <v>505</v>
       </c>
       <c r="Y53" t="s">
-        <v>454</v>
+        <v>506</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>54894</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>126668</v>
+      </c>
+      <c r="C54" t="s">
+        <v>507</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>455</v>
+        <v>508</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="J54" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
       <c r="K54" t="s">
-        <v>458</v>
+        <v>511</v>
       </c>
       <c r="L54" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
@@ -5943,56 +6401,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>460</v>
+        <v>513</v>
       </c>
       <c r="X54" t="s">
-        <v>461</v>
+        <v>514</v>
       </c>
       <c r="Y54" t="s">
-        <v>462</v>
+        <v>515</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>54894</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>126669</v>
+      </c>
+      <c r="C55" t="s">
+        <v>516</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>463</v>
+        <v>517</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="J55" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="K55" t="s">
-        <v>466</v>
+        <v>520</v>
       </c>
       <c r="L55" t="s">
-        <v>467</v>
+        <v>521</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
       <c r="O55" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -6014,56 +6476,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>468</v>
+        <v>522</v>
       </c>
       <c r="X55" t="s">
-        <v>469</v>
+        <v>523</v>
       </c>
       <c r="Y55" t="s">
-        <v>470</v>
+        <v>524</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>54894</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>126670</v>
+      </c>
+      <c r="C56" t="s">
+        <v>525</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>472</v>
+        <v>527</v>
       </c>
       <c r="J56" t="s">
-        <v>473</v>
+        <v>528</v>
       </c>
       <c r="K56" t="s">
-        <v>474</v>
+        <v>529</v>
       </c>
       <c r="L56" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6085,56 +6551,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="X56" t="s">
-        <v>478</v>
+        <v>533</v>
       </c>
       <c r="Y56" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>54894</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>126671</v>
+      </c>
+      <c r="C57" t="s">
+        <v>535</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>481</v>
+        <v>537</v>
       </c>
       <c r="J57" t="s">
-        <v>482</v>
+        <v>538</v>
       </c>
       <c r="K57" t="s">
-        <v>483</v>
+        <v>539</v>
       </c>
       <c r="L57" t="s">
-        <v>484</v>
+        <v>540</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>485</v>
+        <v>541</v>
       </c>
       <c r="O57" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6156,56 +6626,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="X57" t="s">
-        <v>478</v>
+        <v>533</v>
       </c>
       <c r="Y57" t="s">
-        <v>486</v>
+        <v>542</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>54894</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>57891</v>
+      </c>
+      <c r="C58" t="s">
+        <v>543</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>487</v>
+        <v>544</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>488</v>
+        <v>545</v>
       </c>
       <c r="J58" t="s">
-        <v>489</v>
+        <v>546</v>
       </c>
       <c r="K58" t="s">
-        <v>490</v>
+        <v>547</v>
       </c>
       <c r="L58" t="s">
-        <v>491</v>
+        <v>548</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>492</v>
+        <v>549</v>
       </c>
       <c r="O58" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6227,56 +6701,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>493</v>
+        <v>550</v>
       </c>
       <c r="X58" t="s">
-        <v>494</v>
+        <v>551</v>
       </c>
       <c r="Y58" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>54894</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>34690</v>
+      </c>
+      <c r="C59" t="s">
+        <v>553</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>496</v>
+        <v>554</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>497</v>
+        <v>555</v>
       </c>
       <c r="J59" t="s">
-        <v>498</v>
+        <v>556</v>
       </c>
       <c r="K59" t="s">
-        <v>499</v>
+        <v>557</v>
       </c>
       <c r="L59" t="s">
-        <v>500</v>
+        <v>558</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>492</v>
+        <v>549</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -6298,56 +6776,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
       <c r="X59" t="s">
-        <v>502</v>
+        <v>560</v>
       </c>
       <c r="Y59" t="s">
-        <v>503</v>
+        <v>561</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>54894</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>21794</v>
+      </c>
+      <c r="C60" t="s">
+        <v>562</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>504</v>
+        <v>563</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>505</v>
+        <v>564</v>
       </c>
       <c r="J60" t="s">
-        <v>506</v>
+        <v>565</v>
       </c>
       <c r="K60" t="s">
-        <v>507</v>
+        <v>566</v>
       </c>
       <c r="L60" t="s">
-        <v>508</v>
+        <v>567</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>485</v>
+        <v>541</v>
       </c>
       <c r="O60" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6369,56 +6851,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
       <c r="X60" t="s">
-        <v>502</v>
+        <v>560</v>
       </c>
       <c r="Y60" t="s">
-        <v>509</v>
+        <v>568</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>54894</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>5646</v>
+      </c>
+      <c r="C61" t="s">
+        <v>569</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>511</v>
+        <v>571</v>
       </c>
       <c r="J61" t="s">
-        <v>512</v>
+        <v>572</v>
       </c>
       <c r="K61" t="s">
-        <v>513</v>
+        <v>573</v>
       </c>
       <c r="L61" t="s">
-        <v>514</v>
+        <v>574</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>515</v>
+        <v>575</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -6442,50 +6928,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>516</v>
+        <v>576</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>54894</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>126672</v>
+      </c>
+      <c r="C62" t="s">
+        <v>577</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>517</v>
+        <v>578</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>518</v>
+        <v>579</v>
       </c>
       <c r="J62" t="s">
-        <v>519</v>
+        <v>580</v>
       </c>
       <c r="K62" t="s">
-        <v>520</v>
+        <v>581</v>
       </c>
       <c r="L62" t="s">
-        <v>521</v>
+        <v>582</v>
       </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>522</v>
+        <v>583</v>
       </c>
       <c r="O62" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -6497,47 +6987,51 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>523</v>
+        <v>584</v>
       </c>
       <c r="X62" t="s">
-        <v>524</v>
+        <v>585</v>
       </c>
       <c r="Y62" t="s">
-        <v>525</v>
+        <v>586</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>54894</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>126673</v>
+      </c>
+      <c r="C63" t="s">
+        <v>587</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>526</v>
+        <v>588</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>527</v>
+        <v>589</v>
       </c>
       <c r="J63" t="s">
-        <v>528</v>
+        <v>590</v>
       </c>
       <c r="K63" t="s">
-        <v>529</v>
+        <v>591</v>
       </c>
       <c r="L63" t="s">
-        <v>530</v>
+        <v>592</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
@@ -6564,56 +7058,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>531</v>
+        <v>593</v>
       </c>
       <c r="X63" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="Y63" t="s">
-        <v>533</v>
+        <v>595</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>54894</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>79773</v>
+      </c>
+      <c r="C64" t="s">
+        <v>596</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>534</v>
+        <v>597</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>535</v>
+        <v>598</v>
       </c>
       <c r="J64" t="s">
-        <v>536</v>
+        <v>599</v>
       </c>
       <c r="K64" t="s">
-        <v>537</v>
+        <v>600</v>
       </c>
       <c r="L64" t="s">
-        <v>538</v>
+        <v>601</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>539</v>
+        <v>602</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6635,56 +7133,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>540</v>
+        <v>603</v>
       </c>
       <c r="X64" t="s">
-        <v>541</v>
+        <v>604</v>
       </c>
       <c r="Y64" t="s">
-        <v>542</v>
+        <v>605</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>54894</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>126674</v>
+      </c>
+      <c r="C65" t="s">
+        <v>606</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>543</v>
+        <v>607</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>544</v>
+        <v>608</v>
       </c>
       <c r="J65" t="s">
-        <v>545</v>
+        <v>609</v>
       </c>
       <c r="K65" t="s">
-        <v>546</v>
+        <v>610</v>
       </c>
       <c r="L65" t="s">
-        <v>547</v>
+        <v>611</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>548</v>
+        <v>612</v>
       </c>
       <c r="O65" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6706,47 +7208,51 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>549</v>
+        <v>613</v>
       </c>
       <c r="X65" t="s">
-        <v>550</v>
+        <v>614</v>
       </c>
       <c r="Y65" t="s">
-        <v>551</v>
+        <v>615</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>54894</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>126675</v>
+      </c>
+      <c r="C66" t="s">
+        <v>616</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>552</v>
+        <v>617</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>553</v>
+        <v>618</v>
       </c>
       <c r="J66" t="s">
-        <v>554</v>
+        <v>619</v>
       </c>
       <c r="K66" t="s">
-        <v>555</v>
+        <v>620</v>
       </c>
       <c r="L66" t="s">
-        <v>556</v>
+        <v>621</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
@@ -6773,47 +7279,51 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>557</v>
+        <v>622</v>
       </c>
       <c r="X66" t="s">
-        <v>558</v>
+        <v>623</v>
       </c>
       <c r="Y66" t="s">
-        <v>559</v>
+        <v>624</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>54894</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>126676</v>
+      </c>
+      <c r="C67" t="s">
+        <v>625</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>560</v>
+        <v>626</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>561</v>
+        <v>627</v>
       </c>
       <c r="J67" t="s">
-        <v>562</v>
+        <v>628</v>
       </c>
       <c r="K67" t="s">
-        <v>563</v>
+        <v>629</v>
       </c>
       <c r="L67" t="s">
-        <v>564</v>
+        <v>630</v>
       </c>
       <c r="M67" t="n">
         <v>2</v>
@@ -6842,50 +7352,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>565</v>
+        <v>631</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>54894</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>126677</v>
+      </c>
+      <c r="C68" t="s">
+        <v>632</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>566</v>
+        <v>633</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>567</v>
+        <v>634</v>
       </c>
       <c r="J68" t="s">
-        <v>568</v>
+        <v>635</v>
       </c>
       <c r="K68" t="s">
-        <v>569</v>
+        <v>636</v>
       </c>
       <c r="L68" t="s">
-        <v>570</v>
+        <v>637</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>571</v>
+        <v>638</v>
       </c>
       <c r="O68" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -6909,50 +7423,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>572</v>
+        <v>639</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>54894</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>102313</v>
+      </c>
+      <c r="C69" t="s">
+        <v>640</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>573</v>
+        <v>641</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>574</v>
+        <v>642</v>
       </c>
       <c r="J69" t="s">
-        <v>575</v>
+        <v>643</v>
       </c>
       <c r="K69" t="s">
-        <v>576</v>
+        <v>644</v>
       </c>
       <c r="L69" t="s">
-        <v>577</v>
+        <v>645</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>571</v>
+        <v>638</v>
       </c>
       <c r="O69" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -6976,50 +7494,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>578</v>
+        <v>646</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>54894</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>68888</v>
+      </c>
+      <c r="C70" t="s">
+        <v>647</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>579</v>
+        <v>648</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>580</v>
+        <v>649</v>
       </c>
       <c r="J70" t="s">
-        <v>581</v>
+        <v>650</v>
       </c>
       <c r="K70" t="s">
-        <v>582</v>
+        <v>651</v>
       </c>
       <c r="L70" t="s">
-        <v>583</v>
+        <v>652</v>
       </c>
       <c r="M70" t="n">
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>584</v>
+        <v>653</v>
       </c>
       <c r="O70" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
@@ -7033,50 +7555,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>585</v>
+        <v>654</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>54894</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>126678</v>
+      </c>
+      <c r="C71" t="s">
+        <v>655</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>586</v>
+        <v>656</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>587</v>
+        <v>657</v>
       </c>
       <c r="J71" t="s">
-        <v>588</v>
+        <v>658</v>
       </c>
       <c r="K71" t="s">
-        <v>589</v>
+        <v>659</v>
       </c>
       <c r="L71" t="s">
-        <v>590</v>
+        <v>660</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>591</v>
+        <v>661</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -7090,50 +7616,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>590</v>
+        <v>660</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>54894</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>18815</v>
+      </c>
+      <c r="C72" t="s">
+        <v>662</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>592</v>
+        <v>663</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>593</v>
+        <v>664</v>
       </c>
       <c r="J72" t="s">
-        <v>594</v>
+        <v>665</v>
       </c>
       <c r="K72" t="s">
-        <v>595</v>
+        <v>666</v>
       </c>
       <c r="L72" t="s">
-        <v>596</v>
+        <v>667</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>597</v>
+        <v>668</v>
       </c>
       <c r="O72" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -7157,41 +7687,45 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>598</v>
+        <v>669</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>54894</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>126679</v>
+      </c>
+      <c r="C73" t="s">
+        <v>670</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>599</v>
+        <v>671</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>600</v>
+        <v>672</v>
       </c>
       <c r="J73" t="s">
-        <v>601</v>
+        <v>673</v>
       </c>
       <c r="K73" t="s">
-        <v>602</v>
+        <v>674</v>
       </c>
       <c r="L73" t="s">
-        <v>603</v>
+        <v>675</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
@@ -7220,50 +7754,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>603</v>
+        <v>675</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>54894</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>126680</v>
+      </c>
+      <c r="C74" t="s">
+        <v>676</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>604</v>
+        <v>677</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>605</v>
+        <v>678</v>
       </c>
       <c r="J74" t="s">
-        <v>606</v>
+        <v>679</v>
       </c>
       <c r="K74" t="s">
-        <v>607</v>
+        <v>680</v>
       </c>
       <c r="L74" t="s">
-        <v>608</v>
+        <v>681</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>609</v>
+        <v>682</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7281,56 +7819,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>610</v>
+        <v>683</v>
       </c>
       <c r="X74" t="s">
-        <v>611</v>
+        <v>684</v>
       </c>
       <c r="Y74" t="s">
-        <v>612</v>
+        <v>685</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>54894</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>126681</v>
+      </c>
+      <c r="C75" t="s">
+        <v>686</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>613</v>
+        <v>687</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>614</v>
+        <v>688</v>
       </c>
       <c r="J75" t="s">
-        <v>615</v>
+        <v>689</v>
       </c>
       <c r="K75" t="s">
-        <v>616</v>
+        <v>690</v>
       </c>
       <c r="L75" t="s">
-        <v>617</v>
+        <v>691</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>618</v>
+        <v>692</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7348,56 +7890,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>610</v>
+        <v>683</v>
       </c>
       <c r="X75" t="s">
-        <v>611</v>
+        <v>684</v>
       </c>
       <c r="Y75" t="s">
-        <v>619</v>
+        <v>693</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>54894</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>126682</v>
+      </c>
+      <c r="C76" t="s">
+        <v>694</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>620</v>
+        <v>695</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>621</v>
+        <v>696</v>
       </c>
       <c r="J76" t="s">
-        <v>622</v>
+        <v>697</v>
       </c>
       <c r="K76" t="s">
-        <v>623</v>
+        <v>698</v>
       </c>
       <c r="L76" t="s">
-        <v>624</v>
+        <v>699</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7417,50 +7963,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>626</v>
+        <v>701</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>54894</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>123109</v>
+      </c>
+      <c r="C77" t="s">
+        <v>702</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>627</v>
+        <v>703</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>628</v>
+        <v>704</v>
       </c>
       <c r="J77" t="s">
-        <v>629</v>
+        <v>705</v>
       </c>
       <c r="K77" t="s">
-        <v>630</v>
+        <v>706</v>
       </c>
       <c r="L77" t="s">
-        <v>631</v>
+        <v>707</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>632</v>
+        <v>708</v>
       </c>
       <c r="O77" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7480,50 +8030,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>633</v>
+        <v>709</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>54894</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>126683</v>
+      </c>
+      <c r="C78" t="s">
+        <v>710</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>634</v>
+        <v>711</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>635</v>
+        <v>712</v>
       </c>
       <c r="J78" t="s">
-        <v>636</v>
+        <v>713</v>
       </c>
       <c r="K78" t="s">
-        <v>637</v>
+        <v>714</v>
       </c>
       <c r="L78" t="s">
-        <v>638</v>
+        <v>715</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>639</v>
+        <v>716</v>
       </c>
       <c r="O78" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -7547,50 +8101,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>640</v>
+        <v>717</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>54894</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>126684</v>
+      </c>
+      <c r="C79" t="s">
+        <v>718</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>641</v>
+        <v>719</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>642</v>
+        <v>720</v>
       </c>
       <c r="J79" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="K79" t="s">
-        <v>644</v>
+        <v>722</v>
       </c>
       <c r="L79" t="s">
-        <v>645</v>
+        <v>723</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>646</v>
+        <v>724</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7614,50 +8172,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>647</v>
+        <v>725</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>54894</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>126685</v>
+      </c>
+      <c r="C80" t="s">
+        <v>726</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>648</v>
+        <v>727</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>649</v>
+        <v>728</v>
       </c>
       <c r="J80" t="s">
-        <v>650</v>
+        <v>729</v>
       </c>
       <c r="K80" t="s">
-        <v>651</v>
+        <v>730</v>
       </c>
       <c r="L80" t="s">
-        <v>652</v>
+        <v>731</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>653</v>
+        <v>732</v>
       </c>
       <c r="O80" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7681,41 +8243,45 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>652</v>
+        <v>731</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>54894</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>126686</v>
+      </c>
+      <c r="C81" t="s">
+        <v>733</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>654</v>
+        <v>734</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>655</v>
+        <v>735</v>
       </c>
       <c r="J81" t="s">
-        <v>656</v>
+        <v>736</v>
       </c>
       <c r="K81" t="s">
-        <v>657</v>
+        <v>737</v>
       </c>
       <c r="L81" t="s">
-        <v>658</v>
+        <v>738</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
@@ -7744,50 +8310,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>659</v>
+        <v>739</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>54894</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>126687</v>
+      </c>
+      <c r="C82" t="s">
+        <v>740</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>660</v>
+        <v>741</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>661</v>
+        <v>742</v>
       </c>
       <c r="J82" t="s">
-        <v>662</v>
+        <v>743</v>
       </c>
       <c r="K82" t="s">
-        <v>663</v>
+        <v>744</v>
       </c>
       <c r="L82" t="s">
-        <v>664</v>
+        <v>745</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>665</v>
+        <v>746</v>
       </c>
       <c r="O82" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7809,56 +8379,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="X82" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="Y82" t="s">
-        <v>666</v>
+        <v>747</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>54894</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>126680</v>
+      </c>
+      <c r="C83" t="s">
+        <v>686</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>667</v>
+        <v>748</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>668</v>
+        <v>749</v>
       </c>
       <c r="J83" t="s">
-        <v>669</v>
+        <v>750</v>
       </c>
       <c r="K83" t="s">
-        <v>670</v>
+        <v>751</v>
       </c>
       <c r="L83" t="s">
-        <v>671</v>
+        <v>752</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>672</v>
+        <v>753</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -7882,50 +8456,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>671</v>
+        <v>752</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>54894</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>126688</v>
+      </c>
+      <c r="C84" t="s">
+        <v>754</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>673</v>
+        <v>755</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>674</v>
+        <v>756</v>
       </c>
       <c r="J84" t="s">
-        <v>675</v>
+        <v>757</v>
       </c>
       <c r="K84" t="s">
-        <v>676</v>
+        <v>758</v>
       </c>
       <c r="L84" t="s">
-        <v>677</v>
+        <v>759</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>678</v>
+        <v>760</v>
       </c>
       <c r="O84" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -7949,7 +8527,7 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>677</v>
+        <v>759</v>
       </c>
     </row>
   </sheetData>
